--- a/data/test_register.xlsx
+++ b/data/test_register.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册模块-正向用例" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="47">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">#phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
   </si>
   <si>
     <t xml:space="preserve">输入密码</t>
@@ -455,8 +458,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,8 +551,8 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>18817788913</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -566,7 +569,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>123456</v>
@@ -577,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -586,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>123456</v>
@@ -597,16 +600,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>18817788913</v>
@@ -634,10 +637,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -658,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -755,8 +758,8 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>18817750834</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -773,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>123456</v>
@@ -784,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -793,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>123456</v>
@@ -804,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -822,19 +825,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,10 +845,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -860,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -924,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -933,7 +936,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>123</v>
@@ -944,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -953,7 +956,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>123</v>
@@ -964,16 +967,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -982,19 +985,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,10 +1005,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1020,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1082,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
@@ -1091,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>123456</v>
@@ -1102,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>17</v>
@@ -1111,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>123456</v>
@@ -1122,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1140,19 +1143,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,10 +1163,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1178,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1242,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
@@ -1251,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -1260,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
@@ -1269,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>123456</v>
@@ -1280,16 +1283,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1298,19 +1301,19 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1318,10 +1321,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1397,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
@@ -1406,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>123456</v>
@@ -1417,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>17</v>
@@ -1426,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -1435,16 +1438,16 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -1453,19 +1456,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,10 +1476,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
